--- a/sample_mgvcl_consumers.xlsx
+++ b/sample_mgvcl_consumers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\MGVCLBillAmount\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457316AF-4D01-49B1-9F95-15426128E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10710"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumers" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -76,7 +77,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,51 +416,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>14106144638</v>
       </c>
     </row>
   </sheetData>
